--- a/documents/rumus dasar akuntansi.xlsx
+++ b/documents/rumus dasar akuntansi.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="acct practice" sheetId="2" r:id="rId2"/>
+    <sheet name="acct practice" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>NAMA AKUN</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 510-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penjualan </t>
+  </si>
+  <si>
+    <t>Hutang Uang Muka</t>
+  </si>
+  <si>
+    <t>Biaya atas Penjualan</t>
+  </si>
+  <si>
+    <t>Piutang Usaha</t>
   </si>
 </sst>
 </file>
@@ -585,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,6 +664,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,244 +969,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:R19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:18" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="H4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="3:18" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="24"/>
-      <c r="D5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="17">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="6" spans="3:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="17">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="7" spans="3:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="17">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="17">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="3:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" t="s">
-        <v>38</v>
-      </c>
-      <c r="R12">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="R13">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C4:C5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1727,36 +1505,363 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F15:F17"/>
+  <dimension ref="C3:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <v>115000000</v>
-      </c>
-    </row>
-    <row r="16" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F16">
-        <v>950000</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <f>F15-F16</f>
-        <v>114050000</v>
-      </c>
+    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:18" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="H4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="24"/>
+      <c r="D5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="17">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="17">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="17">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13">
+        <v>11500000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="13">
+        <v>5500000</v>
+      </c>
+      <c r="E7" s="13">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="29">
+        <f>SUM(D5:D9)-SUM(E5:E9)</f>
+        <v>-6000000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="13">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="13">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="13">
+        <v>11500000</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="29"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="13">
+        <f>SUM(E12:E15)-SUM(D12:D15)</f>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>